--- a/LOVLON API.xlsx
+++ b/LOVLON API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="174">
   <si>
     <t>LOVLON APIs details</t>
   </si>
@@ -281,26 +281,6 @@
     <t>Content-Type=application/json</t>
   </si>
   <si>
-    <t>gender
-username
-password
-confirmPassword
-email
-dob
-countryId
-stateId
-cityId
-roleId
-deviceInformation
- -appVersion
- -deviceOS
- -deviceType
- -deviceVersion
- -latitude
- -longitude
- -(imei/udid)-Any One</t>
-  </si>
-  <si>
     <t>{
     "username": "LOVLON2",
     "userid": 1048,
@@ -334,24 +314,6 @@
  -(imei/udid)-Any One</t>
   </si>
   <si>
-    <t>{
-    "username": "LOVLON2",
-    "userid": 1048,
-    "otpType": "resend",
-    "deviceInformation": {
-        "ipAddress": "127.0.0.1",
-        "appVersion": "1.0",
-        "deviceOS": "IOS",
-        "deviceType": "APPLE",
-        "deviceVersion": "8.0",
-        "imei": "",
-        "udid": "1234567890",
-        "latitude": "10.0 C",
-        "longitude": "14.0 C"
-    }
-}</t>
-  </si>
-  <si>
     <t>username
 userid
 otpType
@@ -507,25 +469,10 @@
     <t>/image:{{imgid}}</t>
   </si>
   <si>
-    <t>/like</t>
-  </si>
-  <si>
-    <t>/unlike</t>
-  </si>
-  <si>
-    <t>/block</t>
-  </si>
-  <si>
-    <t>/unblock</t>
-  </si>
-  <si>
     <t>/locationSearch</t>
   </si>
   <si>
     <t>/advancedsearch</t>
-  </si>
-  <si>
-    <t>/dashboard</t>
   </si>
   <si>
     <t>id
@@ -1301,12 +1248,100 @@
   <si>
     <t>http://157.230.40.248:8761/lovlon/api/um-service/um/userlocation</t>
   </si>
+  <si>
+    <t>{
+    "username": "LOVLON2",
+    "userid": 1048,
+    "otpType": "resend",
+    "email": "sunil.katta@stridefuture.com",
+    "deviceInformation": {
+        "ipAddress": "127.0.0.1",
+        "appVersion": "1.0",
+        "deviceOS": "IOS",
+        "deviceType": "APPLE",
+        "deviceVersion": "8.0",
+        "imei": "",
+        "udid": "1234567890",
+        "latitude": "10.0 C",
+        "longitude": "14.0 C"
+    }
+}</t>
+  </si>
+  <si>
+    <t>Validate Response Fields</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gender
+username
+password
+confirmPassword
+email
+dob
+countryId
+stateId
+cityId
+roleId
+deviceInformation
+ -appVersion
+ -deviceOS
+ -deviceType
+ -deviceVersion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -latitude
+ -longitude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ -(imei/udid)-Any One</t>
+    </r>
+  </si>
+  <si>
+    <t>/userDetails</t>
+  </si>
+  <si>
+    <t>Kamal</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t>/dashboard(Match)</t>
+  </si>
+  <si>
+    <t>/likeProfile</t>
+  </si>
+  <si>
+    <t>/unlikeProfile</t>
+  </si>
+  <si>
+    <t>/blockProfile</t>
+  </si>
+  <si>
+    <t>/unblockProfile</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1344,6 +1379,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1377,7 +1419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1400,6 +1442,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1408,7 +1461,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1424,35 +1477,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1467,9 +1493,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1488,6 +1511,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1787,7 +1843,7 @@
   <dimension ref="G6:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="H14" sqref="H14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1800,69 +1856,69 @@
   </cols>
   <sheetData>
     <row r="6" spans="7:15" ht="18.75">
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="8" spans="7:15">
       <c r="G8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="H8" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="7:15">
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="7:15">
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="7:15">
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="13" spans="7:15">
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20" t="s">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="12" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1870,16 +1926,16 @@
       <c r="G14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="11" t="s">
         <v>69</v>
       </c>
       <c r="N14" t="s">
@@ -1893,28 +1949,28 @@
       <c r="G15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="7:15">
       <c r="G16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="7:11">
       <c r="G17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="20" spans="7:11">
       <c r="G20" s="4" t="s">
@@ -1958,189 +2014,183 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="18.75">
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="L5" s="16" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="L5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
       <c r="L6" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
       <c r="L8" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="L9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="L12" s="16" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="L12" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
       <c r="L13" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
       <c r="L14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="L15" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
       <c r="L16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="L5:P5"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M14:P14"/>
     <mergeCell ref="M15:P15"/>
@@ -2156,6 +2206,12 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="L12:P12"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="L5:P5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
@@ -2169,10 +2225,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:N35"/>
+  <dimension ref="A2:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2189,16 +2245,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="18.75">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -2245,7 +2301,7 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -2276,7 +2332,7 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -2307,7 +2363,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -2333,7 +2389,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -2359,7 +2415,7 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -2385,7 +2441,7 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -2411,7 +2467,7 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -2434,7 +2490,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -2457,7 +2513,7 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -2483,7 +2539,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -2509,7 +2565,7 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2535,7 +2591,7 @@
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2561,7 +2617,7 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -2587,7 +2643,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2613,7 +2669,7 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -2639,7 +2695,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -2665,7 +2721,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -2691,7 +2747,7 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -2717,7 +2773,7 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -2743,7 +2799,7 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -2769,7 +2825,7 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -2795,10 +2851,13 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
         <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>167</v>
       </c>
       <c r="F26" t="s">
         <v>62</v>
@@ -2818,10 +2877,13 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
         <v>61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>167</v>
       </c>
       <c r="F27" t="s">
         <v>62</v>
@@ -2841,10 +2903,13 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>167</v>
       </c>
       <c r="F28" t="s">
         <v>62</v>
@@ -2864,7 +2929,10 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>170</v>
+      </c>
+      <c r="E29" t="s">
+        <v>168</v>
       </c>
       <c r="F29" t="s">
         <v>62</v>
@@ -2875,7 +2943,10 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>171</v>
+      </c>
+      <c r="E30" t="s">
+        <v>168</v>
       </c>
       <c r="F30" t="s">
         <v>62</v>
@@ -2883,7 +2954,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="C31" t="s">
-        <v>117</v>
+        <v>172</v>
+      </c>
+      <c r="E31" t="s">
+        <v>168</v>
       </c>
       <c r="F31" t="s">
         <v>62</v>
@@ -2891,25 +2965,39 @@
     </row>
     <row r="32" spans="1:8">
       <c r="C32" t="s">
-        <v>118</v>
+        <v>173</v>
+      </c>
+      <c r="E32" t="s">
+        <v>168</v>
       </c>
       <c r="F32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="2:5">
       <c r="C33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
       <c r="C34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="C35" t="s">
-        <v>121</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2922,10 +3010,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H22"/>
+  <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2936,512 +3024,516 @@
     <col min="6" max="6" width="43.28515625" customWidth="1"/>
     <col min="7" max="7" width="24.140625" customWidth="1"/>
     <col min="8" max="8" width="55.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" ht="315">
-      <c r="B2" s="23">
+      <c r="I1" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="315">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="330">
+      <c r="B3" s="14">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="330">
+      <c r="B4" s="14">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="409.5">
+      <c r="B5" s="14">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="409.5">
+      <c r="B6" s="14">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="375">
+      <c r="B7" s="14">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="409.5">
+      <c r="B8" s="14">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="225">
+      <c r="B9" s="14">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="409.5">
+      <c r="B10" s="14">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="24" t="s">
+      <c r="E10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="8" customFormat="1" ht="330">
+      <c r="B11" s="19">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="409.5">
+      <c r="B12" s="14">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="409.5">
+      <c r="B13" s="14">
+        <v>12</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="330">
+      <c r="B14" s="14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="409.5">
+      <c r="B15" s="14">
+        <v>14</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="409.5">
+      <c r="B16" s="14">
+        <v>15</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="409.5">
+      <c r="B17" s="14">
+        <v>16</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="409.5">
+      <c r="B18" s="14">
+        <v>17</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="409.5">
+      <c r="B19" s="14">
+        <v>18</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="330">
-      <c r="B3" s="23">
-        <v>2</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="24" t="s">
+      <c r="G19" s="15" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="330">
-      <c r="B4" s="23">
-        <v>3</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="409.5">
-      <c r="B5" s="23">
-        <v>4</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="H19" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="409.5">
+      <c r="B20" s="14">
+        <v>19</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="409.5">
-      <c r="B6" s="23">
-        <v>5</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="25" t="s">
+      <c r="E20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="150">
+      <c r="B21" s="14">
+        <v>20</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="375">
-      <c r="B7" s="23">
-        <v>6</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="25" t="s">
+      <c r="E21" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="285">
+      <c r="B22" s="14">
+        <v>21</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="409.5">
-      <c r="B8" s="23">
-        <v>7</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="24" t="s">
+      <c r="E22" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="225">
-      <c r="B9" s="23">
-        <v>8</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="409.5">
-      <c r="B10" s="23">
-        <v>9</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" s="8" customFormat="1" ht="330">
-      <c r="B11" s="29">
-        <v>10</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="409.5">
-      <c r="B12" s="23">
-        <v>11</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="409.5">
-      <c r="B13" s="23">
-        <v>12</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="330">
-      <c r="B14" s="23">
-        <v>13</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="409.5">
-      <c r="B15" s="23">
-        <v>14</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="409.5">
-      <c r="B16" s="23">
-        <v>15</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="409.5">
-      <c r="B17" s="23">
-        <v>16</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" s="24" t="s">
+      <c r="F22" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="409.5">
-      <c r="B18" s="23">
-        <v>17</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="409.5">
-      <c r="B19" s="23">
-        <v>18</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="409.5">
-      <c r="B20" s="23">
-        <v>19</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="150">
-      <c r="B21" s="23">
-        <v>20</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="285">
-      <c r="B22" s="23">
-        <v>21</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3458,5 +3550,6 @@
     <hyperlink ref="C2" r:id="rId10" display="http://localhost:8761/api/master-service/master/country"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>